--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,352 +43,370 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>awful</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
     <t>terrible</t>
   </si>
   <si>
+    <t>trash</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>loose</t>
   </si>
   <si>
     <t>inches</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>noise</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>small</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>rip</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>looked</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>expensive</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
     <t>picture</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
     <t>actually</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>1</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>parts</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>came</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>much</t>
@@ -397,52 +415,46 @@
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>love</t>
@@ -451,145 +463,145 @@
     <t>loves</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>plays</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>fun</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>lego</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>everyone</t>
   </si>
   <si>
-    <t>enjoyed</t>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ages</t>
+    <t>grand</t>
   </si>
   <si>
     <t>games</t>
   </si>
   <si>
-    <t>grand</t>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>children</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>play</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>together</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>played</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>year</t>
   </si>
   <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>son</t>
   </si>
   <si>
     <t>positive</t>
@@ -950,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,10 +970,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1019,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1037,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K3">
-        <v>0.95</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1061,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1069,13 +1081,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8620689655172413</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1087,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4">
-        <v>0.9107142857142857</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1111,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1119,13 +1131,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1137,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1161,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1169,13 +1181,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8409090909090909</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1187,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K6">
-        <v>0.8769230769230769</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1211,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1219,13 +1231,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8309859154929577</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1237,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K7">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1261,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1269,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1287,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1311,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1319,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7727272727272727</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -1337,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K9">
-        <v>0.7358490566037735</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1361,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1369,13 +1381,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.765625</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1387,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K10">
         <v>0.6666666666666666</v>
@@ -1419,13 +1431,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7619047619047619</v>
+        <v>0.796875</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1437,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K11">
-        <v>0.6278735632183908</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L11">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1458,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>259</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1490,16 +1502,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K12">
-        <v>0.5954356846473029</v>
+        <v>0.625</v>
       </c>
       <c r="L12">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1511,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>195</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1519,13 +1531,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7391304347826086</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1537,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K13">
-        <v>0.5660377358490566</v>
+        <v>0.6048850574712644</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1558,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1569,13 +1581,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7204301075268817</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C14">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1587,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K14">
-        <v>0.5476190476190477</v>
+        <v>0.5933609958506224</v>
       </c>
       <c r="L14">
-        <v>667</v>
+        <v>286</v>
       </c>
       <c r="M14">
-        <v>669</v>
+        <v>286</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1608,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>551</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1619,13 +1631,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7142857142857143</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1637,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K15">
-        <v>0.5362318840579711</v>
+        <v>0.5373256767842494</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>655</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>656</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1658,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1669,13 +1681,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7027027027027027</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C16">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1687,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16">
-        <v>0.4518072289156627</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1711,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1719,13 +1731,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6990291262135923</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C17">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1737,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K17">
-        <v>0.4403669724770642</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L17">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1761,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1769,13 +1781,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1787,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="L18">
         <v>150</v>
       </c>
-      <c r="K18">
-        <v>0.4391534391534391</v>
-      </c>
-      <c r="L18">
-        <v>83</v>
-      </c>
       <c r="M18">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1811,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>106</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1819,13 +1831,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6571428571428571</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1837,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K19">
-        <v>0.3829787234042553</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1861,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1869,13 +1881,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6458333333333334</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1887,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K20">
-        <v>0.3666666666666666</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1911,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1919,13 +1931,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.68</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1937,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K21">
-        <v>0.3426573426573427</v>
+        <v>0.375</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1961,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1969,13 +1981,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.631578947368421</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1987,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22">
-        <v>0.3389830508474576</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2019,13 +2031,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6134453781512605</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2037,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K23">
-        <v>0.3359375</v>
+        <v>0.34375</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2061,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2069,13 +2081,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2087,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K24">
-        <v>0.32</v>
+        <v>0.328125</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2111,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2119,13 +2131,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5952380952380952</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2137,31 +2149,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="L25">
         <v>17</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25">
-        <v>0.312</v>
-      </c>
-      <c r="L25">
-        <v>39</v>
-      </c>
       <c r="M25">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2169,13 +2181,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5777777777777777</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2190,16 +2202,16 @@
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K26">
-        <v>0.3090909090909091</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2211,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2219,13 +2231,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5662650602409639</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2237,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K27">
-        <v>0.296875</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2261,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2269,13 +2281,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5594202898550724</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C28">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2287,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K28">
-        <v>0.2950819672131147</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2311,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2319,13 +2331,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5526315789473685</v>
+        <v>0.5872093023255814</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2334,22 +2346,22 @@
         <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K29">
-        <v>0.2898550724637681</v>
+        <v>0.2849462365591398</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2361,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2369,13 +2381,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2387,31 +2399,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K30">
-        <v>0.2688172043010753</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2419,13 +2431,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5185185185185185</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2437,31 +2449,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K31">
-        <v>0.264367816091954</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2469,49 +2481,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5142857142857142</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="L32">
         <v>18</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>18</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>17</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32">
-        <v>0.2583479789103691</v>
-      </c>
-      <c r="L32">
-        <v>294</v>
-      </c>
-      <c r="M32">
-        <v>297</v>
-      </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>844</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2519,13 +2531,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2537,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K33">
-        <v>0.2570281124497992</v>
+        <v>0.256</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2561,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>185</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2569,13 +2581,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2587,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K34">
-        <v>0.25</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2619,13 +2631,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4909090909090909</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2637,31 +2649,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K35">
-        <v>0.2393162393162393</v>
+        <v>0.2530755711775044</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>89</v>
+        <v>850</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2669,13 +2681,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4897959183673469</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2687,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K36">
-        <v>0.2173913043478261</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2711,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2719,38 +2731,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4838709677419355</v>
+        <v>0.5234375</v>
       </c>
       <c r="C37">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>67</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>61</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="L37">
         <v>15</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>15</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K37">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="L37">
-        <v>25</v>
-      </c>
-      <c r="M37">
-        <v>25</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2769,13 +2781,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4834123222748815</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C38">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2787,19 +2799,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K38">
-        <v>0.1782729805013928</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L38">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2811,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>295</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2819,13 +2831,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4803149606299212</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2837,31 +2849,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K39">
-        <v>0.1653645833333333</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L39">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1282</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2869,49 +2881,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K40">
-        <v>0.1568627450980392</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2919,13 +2931,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4761904761904762</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2937,31 +2949,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K41">
-        <v>0.1559139784946237</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="L41">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>314</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2969,13 +2981,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4736842105263158</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2987,31 +2999,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K42">
-        <v>0.1452991452991453</v>
+        <v>0.1581001951854261</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3019,13 +3031,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4651162790697674</v>
+        <v>0.4786729857819905</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3037,31 +3049,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K43">
-        <v>0.1392405063291139</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>136</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3069,13 +3081,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.462962962962963</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3087,31 +3099,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K44">
-        <v>0.1133333333333333</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>133</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3119,13 +3131,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4444444444444444</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3137,31 +3149,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K45">
-        <v>0.1055276381909548</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
         <v>21</v>
       </c>
-      <c r="M45">
-        <v>27</v>
-      </c>
       <c r="N45">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="O45">
-        <v>0.22</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3169,13 +3181,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3187,31 +3199,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K46">
-        <v>0.1041666666666667</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>258</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3219,13 +3231,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4166666666666667</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3237,31 +3249,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K47">
-        <v>0.09937888198757763</v>
+        <v>0.1171875</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>290</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3269,13 +3281,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4032258064516129</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3287,31 +3299,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K48">
-        <v>0.09811827956989247</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L48">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>671</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3319,13 +3331,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3934426229508197</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3337,31 +3349,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K49">
-        <v>0.09727626459143969</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3369,13 +3381,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3932584269662922</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3387,31 +3399,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K50">
-        <v>0.09625668449197861</v>
+        <v>0.09664429530201342</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="N50">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="O50">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>169</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3419,13 +3431,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3833333333333334</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3437,19 +3449,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K51">
-        <v>0.09294871794871795</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>0.9399999999999999</v>
@@ -3461,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3469,13 +3481,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3478260869565217</v>
+        <v>0.4</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3487,31 +3499,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K52">
-        <v>0.08695652173913043</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>273</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3519,49 +3531,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3432835820895522</v>
+        <v>0.3930348258706468</v>
       </c>
       <c r="C53">
+        <v>79</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>0.99</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>122</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K53">
+        <v>0.08152173913043478</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
         <v>23</v>
       </c>
-      <c r="D53">
-        <v>23</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>44</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K53">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="L53">
-        <v>20</v>
-      </c>
-      <c r="M53">
-        <v>20</v>
-      </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3569,13 +3581,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3333333333333333</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3587,31 +3599,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="K54">
-        <v>0.07692307692307693</v>
+        <v>0.08099688473520249</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N54">
-        <v>0.58</v>
+        <v>0.9</v>
       </c>
       <c r="O54">
-        <v>0.42</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>252</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3619,13 +3631,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3316831683168317</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C55">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3637,31 +3649,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K55">
-        <v>0.07670043415340087</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L55">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="O55">
-        <v>0.21</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>638</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3669,13 +3681,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3265306122448979</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3687,31 +3699,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K56">
-        <v>0.06994818652849741</v>
+        <v>0.0665083135391924</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N56">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="O56">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3719,13 +3731,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3214285714285715</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3737,31 +3749,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K57">
-        <v>0.06647398843930635</v>
+        <v>0.06510416666666667</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N57">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="O57">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3769,49 +3781,49 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3195876288659794</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>37</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K58">
+        <v>0.06432748538011696</v>
+      </c>
+      <c r="L58">
+        <v>22</v>
+      </c>
+      <c r="M58">
         <v>31</v>
       </c>
-      <c r="D58">
-        <v>31</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>66</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K58">
-        <v>0.06474820143884892</v>
-      </c>
-      <c r="L58">
-        <v>36</v>
-      </c>
-      <c r="M58">
-        <v>45</v>
-      </c>
       <c r="N58">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="O58">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>520</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3819,13 +3831,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3837,31 +3849,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K59">
-        <v>0.06339468302658487</v>
+        <v>0.05738880918220947</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N59">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="O59">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>458</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3869,7 +3881,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3103448275862069</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C60">
         <v>18</v>
@@ -3887,31 +3899,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K60">
-        <v>0.04449648711943794</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N60">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="O60">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>408</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3919,13 +3931,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3061224489795918</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3937,31 +3949,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="K61">
-        <v>0.03773584905660377</v>
+        <v>0.05054151624548736</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M61">
         <v>39</v>
       </c>
       <c r="N61">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="O61">
-        <v>0.5900000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>408</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3969,13 +3981,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2934782608695652</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C62">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3987,31 +3999,31 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K62">
-        <v>0.03129251700680272</v>
+        <v>0.02827380952380952</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N62">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="O62">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>712</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4019,13 +4031,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2933333333333333</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4037,31 +4049,31 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K63">
-        <v>0.02976190476190476</v>
+        <v>0.02642559109874826</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="N63">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O63">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>652</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4069,13 +4081,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2857142857142857</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4087,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4095,25 +4107,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2753623188405797</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C65">
         <v>19</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4121,25 +4133,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2735042735042735</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4147,13 +4159,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2731958762886598</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C67">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D67">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4165,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>141</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4173,13 +4185,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2689873417721519</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C68">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4191,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>231</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4199,13 +4211,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2678571428571428</v>
+        <v>0.286231884057971</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4217,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>41</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4225,25 +4237,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2663316582914573</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4251,13 +4263,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2658227848101266</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C71">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4269,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>232</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4277,13 +4289,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2608695652173913</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4295,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4303,25 +4315,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2602739726027397</v>
+        <v>0.2731958762886598</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4329,25 +4341,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2567567567567567</v>
+        <v>0.271356783919598</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4355,7 +4367,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2439024390243902</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C75">
         <v>20</v>
@@ -4373,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4381,25 +4393,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2435897435897436</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4407,13 +4419,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2428571428571429</v>
+        <v>0.2563291139240506</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D77">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4425,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>106</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4433,25 +4445,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2380952380952381</v>
+        <v>0.25</v>
       </c>
       <c r="C78">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D78">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="E78">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>512</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4459,13 +4471,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2372881355932203</v>
+        <v>0.25</v>
       </c>
       <c r="C79">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D79">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4477,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4485,25 +4497,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2347417840375587</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E80">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4511,13 +4523,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2307692307692308</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4529,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>70</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4537,25 +4549,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2276657060518732</v>
+        <v>0.2399403874813711</v>
       </c>
       <c r="C82">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D82">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E82">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>268</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4563,25 +4575,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2240437158469945</v>
+        <v>0.2305475504322766</v>
       </c>
       <c r="C83">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D83">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>142</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4589,25 +4601,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.2222222222222222</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C84">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E84">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F84">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>350</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4615,25 +4627,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2169312169312169</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C85">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D85">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F85">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>148</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4641,13 +4653,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2165605095541401</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="C86">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4659,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4667,25 +4679,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2162162162162162</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4693,7 +4705,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2142857142857143</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -4711,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4719,25 +4731,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2133333333333333</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E89">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F89">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4745,25 +4757,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.205607476635514</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="C90">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4771,13 +4783,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.203125</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C91">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4789,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>153</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4797,13 +4809,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C92">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4815,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4823,13 +4835,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1958762886597938</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4841,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4849,25 +4861,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1907894736842105</v>
+        <v>0.1875</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E94">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4875,25 +4887,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1904761904761905</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4901,25 +4913,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1889763779527559</v>
+        <v>0.1836283185840708</v>
       </c>
       <c r="C96">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E96">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F96">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>103</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4927,25 +4939,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1818181818181818</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E97">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F97">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4953,25 +4965,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1764705882352941</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E98">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="F98">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4979,25 +4991,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1735537190082645</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="C99">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D99">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F99">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>200</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5005,25 +5017,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1714285714285714</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D100">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5031,25 +5043,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1673003802281369</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C101">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D101">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E101">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F101">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>219</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5057,25 +5069,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1656804733727811</v>
+        <v>0.1629834254143646</v>
       </c>
       <c r="C102">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D102">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E102">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F102">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>141</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5083,13 +5095,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1648351648351648</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C103">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D103">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E103">
         <v>0.02</v>
@@ -5101,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5109,25 +5121,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1464968152866242</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E104">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="F104">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5135,25 +5147,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1453488372093023</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="C105">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E105">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5161,25 +5173,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1444695259593679</v>
+        <v>0.1444043321299639</v>
       </c>
       <c r="C106">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D106">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E106">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F106">
-        <v>0.91</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>379</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5187,13 +5199,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1363636363636364</v>
+        <v>0.143312101910828</v>
       </c>
       <c r="C107">
+        <v>45</v>
+      </c>
+      <c r="D107">
         <v>48</v>
-      </c>
-      <c r="D107">
-        <v>51</v>
       </c>
       <c r="E107">
         <v>0.06</v>
@@ -5205,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5213,25 +5225,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1256544502617801</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D108">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E108">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F108">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5239,25 +5251,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1214642262895175</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C109">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D109">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E109">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>528</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5265,25 +5277,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1163636363636364</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C110">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D110">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E110">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>243</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5291,25 +5303,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1156462585034014</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C111">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F111">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5317,13 +5329,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1153846153846154</v>
+        <v>0.1260364842454395</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="E112">
         <v>0.06</v>
@@ -5335,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>115</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5343,25 +5355,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1117647058823529</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C113">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E113">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5369,13 +5381,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1054313099041534</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="C114">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D114">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>0.11</v>
@@ -5387,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>280</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5395,25 +5407,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1043956043956044</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C115">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E115">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="F115">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5421,25 +5433,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.09883720930232558</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C116">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D116">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E116">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="F116">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5447,13 +5459,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09375</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>0.06</v>
@@ -5465,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>145</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5473,25 +5485,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09302325581395349</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="C118">
         <v>20</v>
       </c>
       <c r="D118">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F118">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5499,25 +5511,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09273570324574962</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C119">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D119">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E119">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F119">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>587</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5525,25 +5537,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0924170616113744</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C120">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D120">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E120">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F120">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>383</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5551,25 +5563,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08433734939759036</v>
+        <v>0.09442724458204334</v>
       </c>
       <c r="C121">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D121">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E121">
-        <v>0.29</v>
+        <v>0.13</v>
       </c>
       <c r="F121">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>380</v>
+        <v>585</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5577,25 +5589,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07652399481193256</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="C122">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D122">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E122">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="F122">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>712</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5603,13 +5615,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0603448275862069</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="C123">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D123">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E123">
         <v>0.12</v>
@@ -5621,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>327</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5629,25 +5641,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.05617977528089887</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D124">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E124">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
       <c r="F124">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5655,25 +5667,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.05336426914153132</v>
+        <v>0.08</v>
       </c>
       <c r="C125">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D125">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E125">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="F125">
-        <v>0.5900000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>408</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5681,25 +5693,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0525164113785558</v>
+        <v>0.07529411764705882</v>
       </c>
       <c r="C126">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D126">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E126">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="F126">
-        <v>0.6699999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5707,25 +5719,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.05210420841683366</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="C127">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D127">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E127">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="F127">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>473</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5733,25 +5745,77 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.02976190476190476</v>
+        <v>0.07032967032967033</v>
       </c>
       <c r="C128">
+        <v>32</v>
+      </c>
+      <c r="D128">
+        <v>46</v>
+      </c>
+      <c r="E128">
+        <v>0.3</v>
+      </c>
+      <c r="F128">
+        <v>0.7</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>0.05275229357798165</v>
+      </c>
+      <c r="C129">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>34</v>
+      </c>
+      <c r="E129">
+        <v>0.32</v>
+      </c>
+      <c r="F129">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>0.02971768202080238</v>
+      </c>
+      <c r="C130">
         <v>20</v>
       </c>
-      <c r="D128">
-        <v>40</v>
-      </c>
-      <c r="E128">
-        <v>0.5</v>
-      </c>
-      <c r="F128">
-        <v>0.5</v>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>652</v>
+      <c r="D130">
+        <v>39</v>
+      </c>
+      <c r="E130">
+        <v>0.49</v>
+      </c>
+      <c r="F130">
+        <v>0.51</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
